--- a/_CLUSTER/groups_time_area/interpolation/combined_MALI/Area5_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_MALI/Area5_count.xlsx
@@ -375,18 +375,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37551</v>
+        <v>50827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22658</v>
+        <v>9382</v>
       </c>
     </row>
   </sheetData>
